--- a/media/uploaded_files/data.xlsx
+++ b/media/uploaded_files/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>S.No</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>73.5x29x61.5</t>
+  </si>
+  <si>
+    <t>GB</t>
   </si>
 </sst>
 </file>
@@ -693,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -801,8 +804,8 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+      <c r="B2" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>24</v>
